--- a/Översikt SÄVSJÖ.xlsx
+++ b/Översikt SÄVSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43691</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44847</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43383</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43493</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>43493</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43675</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45168</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45170</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43327</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43383</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43397</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43413</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43418</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43423</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43446</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>43468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43474</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43488</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43489</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43489</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43489</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43494</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43496</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43504</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43506</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43510</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43514</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43514</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43534</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43538</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43538</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43538</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43541</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43543</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43560</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43563</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43566</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43571</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43571</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43584</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43602</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43613</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43613</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43613</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43628</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43633</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43661</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43690</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43700</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43705</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43712</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43714</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43717</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43717</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43726</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43726</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43746</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43759</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43766</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43767</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43776</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43804</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43833</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43853</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43874</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43896</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43907</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43917</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43929</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43997</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43999</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44003</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>44008</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>44011</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44012</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44012</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44012</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44019</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44020</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>44020</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44020</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44022</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44022</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44029</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44054</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44056</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44070</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>44088</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>44103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>44109</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>44111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44132</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44134</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>44134</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>44139</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>44144</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44144</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44151</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44152</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44152</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44152</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>44153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44153</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44158</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44158</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44160</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44161</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44173</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44173</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44173</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44175</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44180</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44186</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44200</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>44200</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44200</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44207</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44217</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44225</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44236</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44243</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44245</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44263</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44267</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44269</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44271</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44273</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44281</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44341</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44341</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44341</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44348</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44351</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44369</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44370</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44370</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44378</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44386</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44390</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44397</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44405</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44414</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44414</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44414</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44442</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44448</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44448</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44469</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44474</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44502</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44510</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44532</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44541</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44544</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44565</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44582</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44601</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44608</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44624</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44642</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44691</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44700</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44791</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44791</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44830</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>44830</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>44830</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>44833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44844</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44848</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44848</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44851</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44853</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44859</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44862</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44886</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>44888</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44888</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44935</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44935</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44942</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>44942</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44952</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44957</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44957</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44964</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44970</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>44970</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44972</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44981</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>44992</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45001</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45001</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45001</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45001</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45006</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45016</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45028</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45029</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45040</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45043</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45053</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45056</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45062</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45079</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45079</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45086</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45102</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45104</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45104</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45104</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>45110</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45119</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45133</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45170</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt SÄVSJÖ.xlsx
+++ b/Översikt SÄVSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43691</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44847</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43383</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43493</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>43493</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43675</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45168</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45170</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43327</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43383</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43397</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43413</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43418</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43423</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43446</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>43468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43474</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43488</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43489</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43489</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43489</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43494</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43496</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43504</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43506</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43510</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43514</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43514</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43534</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43538</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43538</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43538</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43541</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43543</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43560</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43563</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43566</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43571</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43571</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43584</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43602</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43613</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43613</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43613</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43628</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43633</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43661</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43690</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43700</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43705</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43712</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43714</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43717</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43717</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43726</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43726</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43746</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43759</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43766</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43767</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43776</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43804</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43833</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43853</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43874</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43896</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43907</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43917</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43929</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43997</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43999</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44003</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>44008</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>44011</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44012</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44012</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44012</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44019</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44020</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>44020</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44020</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44022</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44022</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44029</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44054</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44056</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44070</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>44088</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>44103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>44109</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>44111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44132</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44134</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>44134</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>44139</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>44144</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44144</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44151</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44152</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44152</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44152</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>44153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44153</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44158</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44158</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44160</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44161</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44173</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44173</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44173</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44175</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44180</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44186</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44200</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>44200</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44200</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44207</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44217</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44225</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44236</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44243</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44245</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44263</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44267</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44269</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44271</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44273</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44281</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44341</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44341</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44341</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44348</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44351</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44369</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44370</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44370</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44378</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44386</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44390</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44397</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44405</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44414</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44414</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44414</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44442</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44448</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44448</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44469</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44474</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44502</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44510</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44532</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44541</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44544</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44565</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44582</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44601</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44608</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44624</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44642</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44691</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44700</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44791</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44791</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44830</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>44830</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>44830</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>44833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44844</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44848</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44848</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44851</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44853</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44859</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44862</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44886</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>44888</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44888</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44935</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44935</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44942</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>44942</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44952</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44957</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44957</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44964</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44970</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>44970</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44972</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44981</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>44992</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45001</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45001</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45001</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45001</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45006</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45016</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45028</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45029</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45040</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45043</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45053</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45056</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45062</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45079</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45079</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45086</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45102</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45104</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45104</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45104</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>45110</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45119</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45133</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45170</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt SÄVSJÖ.xlsx
+++ b/Översikt SÄVSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43691</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44847</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43383</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43493</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>43493</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43675</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45168</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45170</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43327</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43383</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43397</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43413</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43418</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43423</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43446</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>43468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43474</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43488</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43489</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43489</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43489</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43494</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43496</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43504</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43506</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43510</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43514</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43514</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43534</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43538</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43538</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43538</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43541</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43543</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43560</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43563</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43566</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43571</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43571</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43584</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43602</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43613</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43613</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43613</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43628</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43633</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43661</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43690</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43700</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43705</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43712</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43714</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43717</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43717</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43726</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43726</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43746</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43759</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43766</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43767</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43776</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43804</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43833</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43853</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43874</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43896</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43907</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43917</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43929</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43997</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43999</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44003</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>44008</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>44011</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44012</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44012</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44012</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44019</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44020</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>44020</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44020</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44022</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44022</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44029</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44054</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44056</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44070</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>44088</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>44103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>44109</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>44111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44132</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44134</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>44134</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>44139</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>44144</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44144</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44151</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44152</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44152</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44152</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>44153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44153</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44158</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44158</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44160</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44161</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44173</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44173</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44173</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44175</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44180</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44186</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44200</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>44200</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44200</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44207</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44217</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44225</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44236</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44243</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44245</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44263</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44267</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44269</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44271</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44273</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44281</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44341</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44341</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44341</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44348</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44351</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44369</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44370</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44370</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44378</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44386</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44390</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44397</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44405</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44414</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44414</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44414</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44442</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44448</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44448</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44469</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44474</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44502</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44510</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44532</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44541</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44544</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44565</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44582</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44601</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44608</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44624</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44642</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44691</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44700</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44791</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44791</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44830</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>44830</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>44830</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>44833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44844</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44848</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44848</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44851</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44853</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44859</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44862</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44886</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>44888</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44888</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44935</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44935</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44942</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>44942</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44952</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44957</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44957</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44964</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44970</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>44970</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44972</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44981</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>44992</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45001</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45001</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45001</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45001</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45006</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45016</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45028</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45029</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45040</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45043</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45053</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45056</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45062</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45079</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45079</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45086</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45102</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45104</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45104</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45104</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>45110</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45119</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45133</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45170</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt SÄVSJÖ.xlsx
+++ b/Översikt SÄVSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43691</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44847</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43383</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43493</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>43493</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43675</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45168</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45170</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43327</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43383</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43397</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43413</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43418</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43423</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43446</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>43468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43474</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43488</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43489</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43489</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43489</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43494</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43496</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43504</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43506</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43510</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43514</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43514</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43534</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43538</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43538</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43538</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43541</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43543</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43560</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43563</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43566</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43571</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43571</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43584</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43602</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43613</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43613</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43613</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43628</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43633</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43661</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43690</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43700</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43705</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43712</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43714</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43717</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43717</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43726</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43726</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43746</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43759</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43766</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43767</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43776</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43804</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43833</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43853</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43874</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43896</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43907</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43917</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43929</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43997</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43999</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44003</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>44008</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>44011</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44012</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44012</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44012</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44019</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44020</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>44020</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44020</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44022</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44022</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44029</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44054</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44056</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44070</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>44088</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>44103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>44109</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>44111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44132</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44134</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>44134</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>44139</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>44144</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44144</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44151</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44152</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44152</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44152</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>44153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44153</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44158</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44158</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44160</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44161</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44173</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44173</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44173</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44175</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44180</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44186</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44200</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>44200</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44200</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44207</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44217</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44225</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44236</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44243</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44245</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44263</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44267</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44269</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44271</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44273</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44281</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44341</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44341</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44341</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44348</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44351</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44369</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44370</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44370</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44378</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44386</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44390</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44397</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44405</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44414</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44414</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44414</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44442</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44448</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44448</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44469</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44474</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44502</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44510</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44532</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44541</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44544</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44565</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44582</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44601</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44608</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44624</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44642</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44691</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44700</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44791</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44791</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44830</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>44830</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>44830</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>44833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44844</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44848</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44848</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44851</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44853</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44859</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44862</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44886</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>44888</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44888</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44935</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44935</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44942</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>44942</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44952</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44957</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44957</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44964</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44970</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>44970</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44972</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44981</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>44992</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45001</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45001</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45001</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45001</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45006</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45016</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45028</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45029</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45040</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45043</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45053</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45056</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45062</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45079</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45079</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45086</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45102</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45104</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45104</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45104</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>45110</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45119</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45133</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45170</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt SÄVSJÖ.xlsx
+++ b/Översikt SÄVSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43691</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44847</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43383</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43493</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>43493</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43675</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45168</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45170</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43327</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43383</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43397</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43413</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43418</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43423</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43446</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>43468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43474</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43488</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43489</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43489</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43489</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43494</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43496</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43504</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43506</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43510</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43514</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43514</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43534</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43538</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43538</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43538</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43541</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43543</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43560</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43563</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43566</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43571</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43571</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43584</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43602</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43613</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43613</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43613</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43628</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43633</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43661</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43690</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43700</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43705</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43712</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43714</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43717</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43717</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43726</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43726</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43746</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43759</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43766</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43767</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43776</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43804</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43833</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43853</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43874</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43896</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43907</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43917</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43929</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43997</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43999</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44003</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>44008</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>44011</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44012</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44012</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44012</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44019</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44020</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>44020</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44020</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44022</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44022</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44029</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44054</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44056</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44070</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>44088</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>44103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>44109</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>44111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44132</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44134</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>44134</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>44139</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>44144</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44144</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44151</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44152</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44152</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44152</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>44153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44153</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44158</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44158</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44160</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44161</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44173</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44173</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44173</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44175</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44180</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44186</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44200</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>44200</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44200</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44207</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44217</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44225</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44236</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44243</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44245</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44263</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44267</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44269</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44271</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44273</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44281</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44341</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44341</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44341</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44348</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44351</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44369</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44370</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44370</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44378</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44386</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44390</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44397</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44405</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44414</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44414</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44414</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44442</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44448</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44448</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44469</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44474</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44502</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44510</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44532</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44541</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44544</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44565</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44582</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44601</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44608</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44624</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44642</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44691</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44700</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44791</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44791</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44830</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>44830</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>44830</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>44833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44844</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44848</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44848</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44851</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44853</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44859</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44862</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44886</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>44888</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44888</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44935</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44935</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44942</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>44942</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44952</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44957</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44957</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44964</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44970</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>44970</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44972</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44981</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>44992</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45001</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45001</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45001</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45001</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45006</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45016</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45028</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45029</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45040</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45043</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45053</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45056</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45062</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45079</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45079</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45086</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45102</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45104</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45104</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45104</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>45110</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45119</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45133</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45170</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt SÄVSJÖ.xlsx
+++ b/Översikt SÄVSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43691</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44847</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43383</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43493</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>43493</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43675</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45168</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45170</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43327</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43383</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43397</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43413</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43418</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43423</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43446</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>43468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43474</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43488</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43489</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43489</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43489</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43494</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43496</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43504</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43506</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43510</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43514</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43514</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43534</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43538</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43538</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43538</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43541</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43543</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43560</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43563</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43566</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43571</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43571</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43584</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43602</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43613</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43613</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43613</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43628</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43633</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43661</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43690</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43700</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43705</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43712</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43714</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43717</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43717</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43726</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43726</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43746</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43759</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43766</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43767</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43776</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43804</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43833</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43853</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43874</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43896</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43907</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43917</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43929</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43997</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43999</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44003</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>44008</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>44011</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44012</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44012</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44012</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44019</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44020</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>44020</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44020</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44022</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44022</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44029</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44054</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44056</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44070</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>44088</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>44103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>44109</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>44111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44132</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44134</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>44134</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>44139</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>44144</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44144</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44151</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44152</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44152</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44152</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>44153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44153</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44158</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44158</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44160</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44161</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44173</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44173</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44173</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44175</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44180</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44186</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44200</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>44200</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44200</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44207</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44217</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44225</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44236</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44243</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44245</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44263</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44267</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44269</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44271</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44273</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44281</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44341</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44341</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44341</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44348</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44351</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44369</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44370</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44370</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44378</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44386</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44390</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44397</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44405</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44414</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44414</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44414</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44442</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44448</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44448</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44469</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44474</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44502</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44510</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44532</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44541</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44544</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44565</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44582</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44601</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44608</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44624</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44642</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44691</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44700</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44791</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44791</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44830</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>44830</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>44830</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>44833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44844</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44848</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44848</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44851</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44853</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44859</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44862</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44886</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>44888</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44888</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44935</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44935</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44942</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>44942</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44952</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44957</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44957</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44964</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44970</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>44970</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44972</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44981</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>44992</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45001</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45001</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45001</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45001</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45006</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45016</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45028</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45029</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45040</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45043</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45053</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45056</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45062</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45079</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45079</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45086</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45102</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45104</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45104</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45104</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>45110</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45119</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45133</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45170</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt SÄVSJÖ.xlsx
+++ b/Översikt SÄVSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43691</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44847</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43383</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43493</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>43493</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43675</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45168</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45170</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43327</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43383</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43397</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43413</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43418</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43423</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43446</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>43468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43474</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43488</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43489</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43489</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43489</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43494</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43496</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43504</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43506</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43510</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43514</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43514</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43534</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43538</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43538</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43538</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43541</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43543</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43560</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43563</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43566</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43571</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43571</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43584</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43602</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43613</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43613</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43613</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43628</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43633</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43661</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43690</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43700</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43705</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43712</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43714</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43717</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43717</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43726</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43726</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43746</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43759</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43766</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43767</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43776</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43804</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43833</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43853</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43874</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43896</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43907</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43917</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43929</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43997</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43999</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44003</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>44008</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>44011</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44012</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44012</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44012</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44019</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44020</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>44020</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44020</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44022</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44022</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44029</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44054</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44056</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44070</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>44088</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>44103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>44109</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>44111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44132</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44134</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>44134</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>44139</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>44144</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44144</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44151</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44152</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44152</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44152</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>44153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44153</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44158</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44158</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44160</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44161</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44173</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44173</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44173</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44175</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44180</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44186</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44200</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>44200</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44200</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44207</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44217</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44225</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44236</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44243</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44245</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44263</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44267</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44269</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44271</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44273</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44281</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44341</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44341</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44341</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44348</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44351</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44369</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44370</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44370</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44378</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44386</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44390</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44397</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44405</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44414</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44414</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44414</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44442</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44448</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44448</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44469</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44474</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44502</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44510</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44532</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44541</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44544</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44565</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44582</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44601</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44608</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44624</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44642</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44691</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44700</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44791</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44791</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44830</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>44830</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>44830</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>44833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44844</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44848</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44848</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44851</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44853</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44859</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44862</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44886</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>44888</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44888</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44935</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44935</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44942</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>44942</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44952</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44957</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44957</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44964</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44970</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>44970</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44972</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44981</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>44992</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45001</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45001</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45001</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45001</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45006</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45016</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45028</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45029</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45040</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45043</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45053</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45056</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45062</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45079</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45079</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45086</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45102</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45104</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45104</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45104</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>45110</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45119</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45133</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45170</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt SÄVSJÖ.xlsx
+++ b/Översikt SÄVSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43691</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44847</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43383</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43493</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>43493</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43675</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45168</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45170</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43327</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43383</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43397</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43413</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43418</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43423</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43446</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>43468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43474</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43488</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43489</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43489</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43489</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43494</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43496</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43504</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43506</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43510</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43514</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43514</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43534</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43538</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43538</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43538</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43541</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43543</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43560</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43563</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43566</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43571</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43571</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43584</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43602</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43613</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43613</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43613</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43628</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43633</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43661</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43690</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43700</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43705</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43712</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43714</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43717</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43717</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43726</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43726</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43746</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43759</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43766</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43767</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43776</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43804</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43833</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43853</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43874</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43896</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43907</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43917</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43929</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43997</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43999</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44003</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>44008</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>44011</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44012</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44012</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44012</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44019</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44020</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>44020</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44020</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44022</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44022</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44029</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44054</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44056</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44070</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>44088</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>44103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>44109</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>44111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44132</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44134</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>44134</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>44139</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>44144</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44144</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44151</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44152</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44152</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44152</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>44153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44153</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44158</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44158</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44160</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44161</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44173</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44173</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44173</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44175</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44180</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44186</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44200</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>44200</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44200</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44207</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44217</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44225</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44236</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44243</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44245</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44263</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44267</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44269</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44271</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44273</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44281</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44341</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44341</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44341</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44348</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44351</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44369</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44370</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44370</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44378</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44386</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44390</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44397</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44405</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44414</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44414</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44414</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44442</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44448</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44448</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44469</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44474</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44502</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44510</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44532</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44541</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44544</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44565</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44582</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44601</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44608</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44624</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44642</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44691</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44700</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44791</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44791</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44830</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>44830</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>44830</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>44833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44844</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44848</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44848</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44851</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44853</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44859</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44862</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44886</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>44888</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44888</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44935</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44935</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44942</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>44942</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44952</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44957</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44957</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44964</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44970</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>44970</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44972</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44981</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>44992</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45001</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45001</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45001</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45001</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45006</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45016</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45028</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45029</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45040</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45043</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45053</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45056</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45062</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45079</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45079</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45086</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45102</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45104</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45104</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45104</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>45110</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45119</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45133</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45170</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt SÄVSJÖ.xlsx
+++ b/Översikt SÄVSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43691</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44847</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43383</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43493</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>43493</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43675</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45168</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45170</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43327</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43383</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43397</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43413</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43418</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43423</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43446</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>43468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43474</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43488</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43489</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43489</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43489</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43494</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43496</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43504</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43506</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43510</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43514</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43514</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43534</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43538</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43538</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43538</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43541</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43543</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43560</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43563</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43566</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43571</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43571</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43584</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43602</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43613</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43613</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43613</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43628</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43633</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43661</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43690</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43700</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43705</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43712</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43714</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43717</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43717</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43726</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43726</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43746</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43759</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43766</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43767</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43776</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43804</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43833</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43853</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43874</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43896</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43907</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43917</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43929</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43997</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43999</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44003</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>44008</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>44011</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44012</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44012</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44012</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44019</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44020</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>44020</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44020</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44022</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44022</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44029</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44054</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44056</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44070</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>44088</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>44103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>44109</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>44111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44132</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44134</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>44134</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>44139</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>44144</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44144</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44151</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44152</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44152</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44152</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>44153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44153</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44158</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44158</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44160</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44161</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44173</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44173</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44173</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44175</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44180</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44186</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44200</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>44200</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44200</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44207</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44217</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44225</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44236</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44243</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44245</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44263</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44267</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44269</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44271</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44273</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44281</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44341</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44341</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44341</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44348</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44351</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44369</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44370</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44370</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44378</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44386</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44390</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44397</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44405</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44414</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44414</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44414</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44442</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44448</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44448</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44469</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44474</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44502</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44510</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44532</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44541</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44544</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44565</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44582</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44601</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44608</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44624</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44642</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44691</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44700</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44791</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44791</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44830</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>44830</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>44830</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>44833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44844</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44848</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44848</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44851</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44853</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44859</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44862</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44886</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>44888</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44888</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44935</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44935</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44942</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>44942</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44952</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44957</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44957</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44964</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44970</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>44970</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44972</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44981</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>44992</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45001</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45001</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45001</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45001</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45006</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45016</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45028</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45029</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45040</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45043</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45053</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45056</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45062</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45079</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45079</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45086</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45102</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45104</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45104</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45104</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>45110</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45119</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45133</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45170</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt SÄVSJÖ.xlsx
+++ b/Översikt SÄVSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43691</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,27 +629,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/artfynd/A 39548-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/artfynd/A 39548-2019.xlsx", "A 39548-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/kartor/A 39548-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/kartor/A 39548-2019.png", "A 39548-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomål/A 39548-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomål/A 39548-2019.docx", "A 39548-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomålsmail/A 39548-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomålsmail/A 39548-2019.docx", "A 39548-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsyn/A 39548-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsyn/A 39548-2019.docx", "A 39548-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsynsmail/A 39548-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsynsmail/A 39548-2019.docx", "A 39548-2019")</f>
         <v/>
       </c>
     </row>
@@ -663,7 +663,7 @@
         <v>43963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -715,27 +715,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/artfynd/A 22662-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/artfynd/A 22662-2020.xlsx", "A 22662-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/kartor/A 22662-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/kartor/A 22662-2020.png", "A 22662-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomål/A 22662-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomål/A 22662-2020.docx", "A 22662-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomålsmail/A 22662-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomålsmail/A 22662-2020.docx", "A 22662-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsyn/A 22662-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsyn/A 22662-2020.docx", "A 22662-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsynsmail/A 22662-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsynsmail/A 22662-2020.docx", "A 22662-2020")</f>
         <v/>
       </c>
     </row>
@@ -749,7 +749,7 @@
         <v>43963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,27 +801,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/artfynd/A 22660-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/artfynd/A 22660-2020.xlsx", "A 22660-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/kartor/A 22660-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/kartor/A 22660-2020.png", "A 22660-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomål/A 22660-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomål/A 22660-2020.docx", "A 22660-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomålsmail/A 22660-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomålsmail/A 22660-2020.docx", "A 22660-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsyn/A 22660-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsyn/A 22660-2020.docx", "A 22660-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsynsmail/A 22660-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsynsmail/A 22660-2020.docx", "A 22660-2020")</f>
         <v/>
       </c>
     </row>
@@ -835,7 +835,7 @@
         <v>44847</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -887,27 +887,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/artfynd/A 46272-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/artfynd/A 46272-2022.xlsx", "A 46272-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/kartor/A 46272-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/kartor/A 46272-2022.png", "A 46272-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomål/A 46272-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomål/A 46272-2022.docx", "A 46272-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomålsmail/A 46272-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomålsmail/A 46272-2022.docx", "A 46272-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsyn/A 46272-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsyn/A 46272-2022.docx", "A 46272-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsynsmail/A 46272-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsynsmail/A 46272-2022.docx", "A 46272-2022")</f>
         <v/>
       </c>
     </row>
@@ -921,7 +921,7 @@
         <v>44900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,27 +973,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/artfynd/A 58101-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/artfynd/A 58101-2022.xlsx", "A 58101-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/kartor/A 58101-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/kartor/A 58101-2022.png", "A 58101-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomål/A 58101-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomål/A 58101-2022.docx", "A 58101-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomålsmail/A 58101-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomålsmail/A 58101-2022.docx", "A 58101-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsyn/A 58101-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsyn/A 58101-2022.docx", "A 58101-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsynsmail/A 58101-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsynsmail/A 58101-2022.docx", "A 58101-2022")</f>
         <v/>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
         <v>43383</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1058,27 +1058,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/artfynd/A 52688-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/artfynd/A 52688-2018.xlsx", "A 52688-2018")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/kartor/A 52688-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/kartor/A 52688-2018.png", "A 52688-2018")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomål/A 52688-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomål/A 52688-2018.docx", "A 52688-2018")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomålsmail/A 52688-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomålsmail/A 52688-2018.docx", "A 52688-2018")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsyn/A 52688-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsyn/A 52688-2018.docx", "A 52688-2018")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsynsmail/A 52688-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsynsmail/A 52688-2018.docx", "A 52688-2018")</f>
         <v/>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1143,27 +1143,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/artfynd/A 60273-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/artfynd/A 60273-2018.xlsx", "A 60273-2018")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/kartor/A 60273-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/kartor/A 60273-2018.png", "A 60273-2018")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomål/A 60273-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomål/A 60273-2018.docx", "A 60273-2018")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomålsmail/A 60273-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomålsmail/A 60273-2018.docx", "A 60273-2018")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsyn/A 60273-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsyn/A 60273-2018.docx", "A 60273-2018")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsynsmail/A 60273-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsynsmail/A 60273-2018.docx", "A 60273-2018")</f>
         <v/>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
         <v>43493</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1228,27 +1228,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/artfynd/A 7961-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/artfynd/A 7961-2019.xlsx", "A 7961-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/kartor/A 7961-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/kartor/A 7961-2019.png", "A 7961-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomål/A 7961-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomål/A 7961-2019.docx", "A 7961-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomålsmail/A 7961-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomålsmail/A 7961-2019.docx", "A 7961-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsyn/A 7961-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsyn/A 7961-2019.docx", "A 7961-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsynsmail/A 7961-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsynsmail/A 7961-2019.docx", "A 7961-2019")</f>
         <v/>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
         <v>43493</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1313,27 +1313,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/artfynd/A 7951-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/artfynd/A 7951-2019.xlsx", "A 7951-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/kartor/A 7951-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/kartor/A 7951-2019.png", "A 7951-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomål/A 7951-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomål/A 7951-2019.docx", "A 7951-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomålsmail/A 7951-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomålsmail/A 7951-2019.docx", "A 7951-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsyn/A 7951-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsyn/A 7951-2019.docx", "A 7951-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsynsmail/A 7951-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsynsmail/A 7951-2019.docx", "A 7951-2019")</f>
         <v/>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
         <v>43675</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1403,27 +1403,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/artfynd/A 36920-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/artfynd/A 36920-2019.xlsx", "A 36920-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/kartor/A 36920-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/kartor/A 36920-2019.png", "A 36920-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomål/A 36920-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomål/A 36920-2019.docx", "A 36920-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomålsmail/A 36920-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomålsmail/A 36920-2019.docx", "A 36920-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsyn/A 36920-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsyn/A 36920-2019.docx", "A 36920-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsynsmail/A 36920-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsynsmail/A 36920-2019.docx", "A 36920-2019")</f>
         <v/>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
         <v>45168</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1488,27 +1488,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/artfynd/A 40075-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/artfynd/A 40075-2023.xlsx", "A 40075-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/kartor/A 40075-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/kartor/A 40075-2023.png", "A 40075-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomål/A 40075-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomål/A 40075-2023.docx", "A 40075-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomålsmail/A 40075-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomålsmail/A 40075-2023.docx", "A 40075-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsyn/A 40075-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsyn/A 40075-2023.docx", "A 40075-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsynsmail/A 40075-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsynsmail/A 40075-2023.docx", "A 40075-2023")</f>
         <v/>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
         <v>45170</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1573,27 +1573,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/artfynd/A 40543-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/artfynd/A 40543-2023.xlsx", "A 40543-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/kartor/A 40543-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/kartor/A 40543-2023.png", "A 40543-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomål/A 40543-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomål/A 40543-2023.docx", "A 40543-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomålsmail/A 40543-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/klagomålsmail/A 40543-2023.docx", "A 40543-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsyn/A 40543-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsyn/A 40543-2023.docx", "A 40543-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsynsmail/A 40543-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAVSJO/tillsynsmail/A 40543-2023.docx", "A 40543-2023")</f>
         <v/>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43327</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43383</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43397</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43413</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43418</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43423</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43446</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>43468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43474</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43488</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43489</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43489</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43489</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43494</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43496</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43504</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43506</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43510</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43514</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43514</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43534</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43538</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43538</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43538</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43541</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43543</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43560</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43563</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43566</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43571</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43571</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43584</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43602</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43613</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43613</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43613</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43628</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43633</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43661</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43690</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43700</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43705</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43712</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43714</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43717</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43717</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43726</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43726</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43746</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43759</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43766</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43767</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43776</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43804</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43833</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43853</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43874</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43896</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43907</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43917</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43929</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43997</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43999</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44003</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>44008</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>44011</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44012</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44012</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44012</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44019</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44020</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>44020</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44020</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44022</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44022</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44029</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44054</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44056</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44070</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>44088</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>44103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>44109</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>44111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44132</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44134</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>44134</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>44139</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>44144</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44144</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44151</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44152</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44152</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44152</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>44153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44153</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44158</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44158</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44160</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44161</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44173</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44173</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44173</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44175</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44180</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44186</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44200</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>44200</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44200</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44207</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44217</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44225</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44236</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44243</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44245</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44263</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44267</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44269</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44271</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44273</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44281</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44341</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44341</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44341</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44348</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44351</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44369</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44370</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44370</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44378</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44386</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44390</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44397</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44405</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44414</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44414</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44414</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44442</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44448</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44448</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44469</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44474</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44502</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44510</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44532</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44541</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44544</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44565</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44582</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44601</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44608</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44624</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44642</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44691</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44700</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44791</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44791</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44830</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>44830</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>44830</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>44833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44844</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44848</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44848</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44851</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44853</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44859</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44862</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44886</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>44888</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44888</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44935</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44935</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44942</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>44942</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44952</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44957</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44957</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44964</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44970</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>44970</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44972</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44981</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>44992</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45001</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45001</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45001</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45001</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45006</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45016</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45028</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45029</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45040</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45043</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45053</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45056</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45062</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45079</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45079</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45086</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45102</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45104</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45104</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45104</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>45110</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45119</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45133</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45170</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt SÄVSJÖ.xlsx
+++ b/Översikt SÄVSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43691</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44847</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43383</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43493</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>43493</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43675</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45168</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45170</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43327</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43383</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43397</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43413</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43418</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43423</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43446</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>43468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43474</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43488</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43489</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43489</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43489</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43494</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43496</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43504</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43506</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43510</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43514</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43514</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43534</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43538</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43538</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43538</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43541</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43543</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43560</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43563</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43566</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43571</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43571</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43584</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43602</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43613</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43613</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43613</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43628</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43633</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43661</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43690</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43700</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43705</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43712</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43714</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43717</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43717</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43726</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43726</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43746</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43759</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43766</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43767</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43776</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43804</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43833</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43853</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43874</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43896</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43907</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43917</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43929</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43997</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43999</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44003</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>44008</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>44011</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44012</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44012</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44012</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44019</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44020</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>44020</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44020</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44022</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44022</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44029</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44054</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44056</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44070</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>44088</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>44103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>44109</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>44111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44132</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44134</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>44134</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>44139</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>44144</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44144</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44151</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44152</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44152</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44152</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>44153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44153</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44158</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44158</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44160</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44161</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44173</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44173</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44173</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44175</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44180</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44186</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44200</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>44200</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44200</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44207</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44217</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44225</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44236</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44243</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44245</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44263</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44267</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44269</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44271</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44273</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44281</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44341</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44341</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44341</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44348</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44351</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44369</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44370</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44370</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44378</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44386</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44390</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44397</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44405</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44414</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44414</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44414</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44442</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44448</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44448</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44469</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44474</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44502</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44510</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44532</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44541</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44544</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44565</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44582</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44601</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44608</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44624</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44642</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44691</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44700</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44791</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44791</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44830</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>44830</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>44830</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>44833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44844</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44848</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44848</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44851</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44853</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44859</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44862</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44886</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>44888</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44888</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44935</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44935</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44942</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>44942</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44952</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44957</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44957</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44964</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44970</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>44970</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44972</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44981</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>44992</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45001</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45001</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45001</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45001</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45006</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45016</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45028</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45029</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45040</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45043</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45053</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45056</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45062</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45079</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45079</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45086</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45102</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45104</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45104</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45104</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>45110</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45119</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45133</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45170</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt SÄVSJÖ.xlsx
+++ b/Översikt SÄVSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43691</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44847</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43383</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43493</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>43493</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43675</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45168</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45170</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43327</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43383</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43397</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43413</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43418</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43423</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43446</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>43468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43474</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43488</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43489</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43489</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43489</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43494</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43496</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43504</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43506</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43510</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43514</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43514</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43534</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43538</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43538</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43538</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43541</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43543</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43560</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43563</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43566</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43571</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43571</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43584</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43602</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43613</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43613</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43613</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43628</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43633</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43661</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43690</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43700</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43705</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43712</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43714</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43717</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43717</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43726</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43726</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43746</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43759</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43766</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43767</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43776</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43804</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43833</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43853</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43874</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43896</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43907</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43917</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43929</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43997</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43999</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44003</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>44008</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>44011</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44012</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44012</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44012</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44019</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44020</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>44020</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44020</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44022</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44022</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44029</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44054</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44056</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44070</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>44088</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>44103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>44109</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>44111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44132</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44134</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>44134</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>44139</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>44144</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44144</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44151</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44152</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44152</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44152</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>44153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44153</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44158</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44158</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44160</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44161</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44173</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44173</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44173</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44175</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44180</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44186</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44200</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>44200</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44200</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44207</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44217</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44225</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44236</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44243</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44245</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44263</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44267</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44269</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44271</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44273</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44281</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44341</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44341</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44341</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44348</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44351</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44369</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44370</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44370</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44378</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44386</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44390</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44397</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44405</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44414</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44414</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44414</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44442</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44448</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44448</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44469</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44474</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44502</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44510</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44532</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44541</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44544</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44565</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44582</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44601</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44608</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44624</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44642</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44691</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44700</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44791</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44791</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44830</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>44830</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>44830</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>44833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44844</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44848</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44848</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44851</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44853</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44859</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44862</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44886</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>44888</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44888</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44935</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44935</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44942</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>44942</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44952</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44957</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44957</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44964</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44970</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>44970</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44972</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44981</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>44992</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45001</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45001</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45001</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45001</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45006</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45016</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45028</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45029</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45040</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45043</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45053</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45056</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45062</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45079</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45079</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45086</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45102</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45104</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45104</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45104</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>45110</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45119</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45133</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45170</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt SÄVSJÖ.xlsx
+++ b/Översikt SÄVSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43691</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44847</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43383</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43493</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>43493</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43675</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45168</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45170</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43327</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43383</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43397</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43413</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43418</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43423</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43446</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>43468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43474</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43488</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43489</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43489</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43489</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43494</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43496</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43504</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43506</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43510</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43514</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43514</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43534</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43538</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43538</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43538</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43541</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43543</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43560</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43563</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43566</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43571</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43571</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43584</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43602</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43613</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43613</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43613</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43628</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43633</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43661</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43690</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43700</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43705</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43712</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43714</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43717</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43717</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43726</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43726</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43746</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43759</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43766</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43767</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43776</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43804</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43833</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43853</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43874</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43896</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43907</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43917</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43929</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43997</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43999</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44003</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>44008</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>44011</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44012</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44012</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44012</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44019</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44020</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>44020</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44020</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44022</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44022</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44029</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44054</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44056</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44070</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>44088</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>44103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>44109</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>44111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44132</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44134</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>44134</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>44139</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>44144</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44144</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44151</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44152</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44152</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44152</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>44153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44153</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44158</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44158</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44160</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44161</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44173</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44173</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44173</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44175</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44180</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44186</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44200</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>44200</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44200</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44207</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44217</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44225</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44236</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44243</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44245</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44263</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44267</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44269</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44271</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44273</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44281</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44341</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44341</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44341</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44348</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44351</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44369</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44370</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44370</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44378</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44386</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44390</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44397</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44405</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44414</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44414</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44414</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44442</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44448</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44448</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44469</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44474</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44502</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44510</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44532</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44541</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44544</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44565</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44582</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44601</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44608</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44624</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44642</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44691</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44700</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44791</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44791</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44830</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>44830</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>44830</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>44833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44844</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44848</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44848</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44851</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44853</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44859</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44862</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44886</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>44888</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44888</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44935</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44935</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44942</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>44942</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44952</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44957</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44957</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44964</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44970</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>44970</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44972</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44981</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>44992</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45001</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45001</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45001</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45001</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45006</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45016</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45028</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45029</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45040</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45043</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45053</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45056</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45062</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45079</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45079</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45086</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45102</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45104</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45104</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45104</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>45110</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45119</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45133</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45170</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt SÄVSJÖ.xlsx
+++ b/Översikt SÄVSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43691</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44847</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43383</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43493</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>43493</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43675</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45168</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45170</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43327</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43383</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43397</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43413</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43418</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43423</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43446</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>43468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43474</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43488</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43489</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43489</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43489</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43494</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43496</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43504</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43506</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43510</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43514</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43514</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43534</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43538</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43538</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43538</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43541</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43543</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43560</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43563</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43566</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43571</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43571</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43584</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43602</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43613</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43613</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43613</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43628</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43633</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43661</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43690</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43700</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43705</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43712</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43714</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43717</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43717</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43726</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43726</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43746</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43759</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43766</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43767</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43776</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43804</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43833</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43853</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43874</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43896</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43907</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43917</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43929</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43997</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43999</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44003</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>44008</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>44011</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44012</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44012</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44012</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44019</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44020</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>44020</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44020</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44022</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44022</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44029</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44054</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44056</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44070</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>44088</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>44103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>44109</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>44111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44132</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44134</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>44134</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>44139</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>44144</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44144</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44151</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44152</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44152</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44152</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>44153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44153</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44158</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44158</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44160</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44161</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44173</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44173</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44173</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44175</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44180</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44186</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44200</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>44200</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44200</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44207</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44217</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44225</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44236</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44243</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44245</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44263</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44267</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44269</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44271</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44273</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44281</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44341</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44341</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44341</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44348</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44351</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44369</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44370</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44370</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44378</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44386</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44390</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44397</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44405</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44414</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44414</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44414</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44442</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44448</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44448</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44469</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44474</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44502</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44510</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44532</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44541</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44544</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44565</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44582</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44601</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44608</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44624</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44642</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44691</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44700</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44791</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44791</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44830</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>44830</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>44830</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>44833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44844</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44848</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44848</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44851</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44853</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44859</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44862</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44886</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>44888</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44888</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44935</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44935</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44942</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>44942</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44952</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44957</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44957</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44964</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44970</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>44970</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44972</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44981</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>44992</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45001</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45001</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45001</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45001</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45006</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45016</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45028</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45029</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45040</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45043</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45053</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45056</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45062</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45079</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45079</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45086</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45102</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45104</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45104</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45104</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>45110</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45119</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45133</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45170</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt SÄVSJÖ.xlsx
+++ b/Översikt SÄVSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43691</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44847</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43383</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43493</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>43493</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43675</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45168</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45170</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43327</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43383</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43397</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43413</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43418</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43423</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43446</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>43468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43474</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43488</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43489</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43489</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43489</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43494</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43496</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43504</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43506</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43510</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43514</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43514</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43534</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43538</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43538</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43538</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43541</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43543</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43560</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43563</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43566</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43571</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43571</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43584</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43602</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43613</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43613</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43613</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43628</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43633</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43661</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43690</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43700</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43705</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43712</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43714</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43717</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43717</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43726</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43726</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43746</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43759</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43766</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43767</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43776</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43804</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43833</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43853</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43874</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43896</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43907</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43917</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43929</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43997</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43999</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44003</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>44008</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>44011</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44012</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44012</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44012</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44019</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44020</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>44020</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44020</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44022</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44022</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44029</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44054</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44056</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44070</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>44088</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>44103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>44109</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>44111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44132</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44134</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>44134</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>44139</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>44144</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44144</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44151</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44152</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44152</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44152</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>44153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44153</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44158</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44158</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44160</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44161</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44173</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44173</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44173</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44175</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44180</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44186</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44200</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>44200</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44200</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44207</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44217</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44225</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44236</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44243</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44245</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44263</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44267</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44269</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44271</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44273</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44281</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44341</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44341</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44341</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44348</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44351</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44369</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44370</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44370</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44378</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44386</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44390</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44397</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44405</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44414</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44414</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44414</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44442</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44448</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44448</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44469</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44474</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44502</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44510</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44532</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44541</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44544</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44565</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44582</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44601</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44608</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44624</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44642</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44691</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44700</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44791</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44791</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44830</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>44830</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>44830</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>44833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44844</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44848</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44848</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44851</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44853</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44859</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44862</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44886</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>44888</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44888</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44935</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44935</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44942</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>44942</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44952</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44957</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44957</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44964</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44970</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>44970</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44972</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44981</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>44992</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45001</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45001</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45001</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45001</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45006</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45016</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45028</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45029</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45040</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45043</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45053</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45056</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45062</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45079</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45079</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45086</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45102</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45104</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45104</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45104</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>45110</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45119</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45133</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45170</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt SÄVSJÖ.xlsx
+++ b/Översikt SÄVSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43691</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44847</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43383</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43493</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>43493</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43675</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45168</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45170</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43327</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43383</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43397</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43413</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43418</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43423</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43446</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>43468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43474</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43488</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43489</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43489</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43489</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43494</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43496</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43504</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43506</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43510</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43514</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43514</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43534</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43538</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43538</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43538</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43541</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43543</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43560</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43563</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43566</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43571</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43571</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43584</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43602</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43613</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43613</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43613</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43628</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43633</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43661</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43690</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43700</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43705</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43712</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43714</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43717</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43717</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43726</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43726</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43746</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43759</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43766</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43767</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43776</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43804</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43833</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43853</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43874</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43896</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43907</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43917</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43929</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43997</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43999</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44003</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>44008</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>44011</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44012</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44012</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44012</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44019</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44020</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>44020</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44020</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44022</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44022</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44029</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44054</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44056</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44070</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>44088</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>44103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>44109</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>44111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44132</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44134</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>44134</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>44139</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>44144</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44144</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44151</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44152</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44152</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44152</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>44153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44153</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44158</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44158</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44160</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44161</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44173</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44173</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44173</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44175</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44180</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44186</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44200</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>44200</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44200</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44207</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44217</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44225</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44236</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44243</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44245</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44263</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44267</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44269</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44271</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44273</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44281</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44341</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44341</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44341</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44348</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44351</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44369</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44370</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44370</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44378</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44386</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44390</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44397</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44405</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44414</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44414</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44414</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44442</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44448</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44448</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44469</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44474</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44502</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44510</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44532</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44541</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44544</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44565</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44582</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44601</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44608</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44624</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44642</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44691</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44700</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44791</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44791</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44830</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>44830</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>44830</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>44833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44844</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44848</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44848</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44851</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44853</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44859</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44862</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44886</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>44888</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44888</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44935</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44935</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44942</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>44942</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44952</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44957</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44957</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44964</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44970</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>44970</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44972</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44981</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>44992</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45001</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45001</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45001</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45001</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45006</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45016</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45028</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45029</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45040</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45043</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45053</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45056</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45062</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45079</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45079</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45086</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45102</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45104</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45104</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45104</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>45110</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45119</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45133</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45170</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt SÄVSJÖ.xlsx
+++ b/Översikt SÄVSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43691</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44847</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43383</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43493</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>43493</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43675</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45168</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45170</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43327</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43383</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43397</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43413</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43418</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43423</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43446</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>43468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43474</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43488</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43489</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43489</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43489</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43494</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43496</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43504</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43506</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43510</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43514</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43514</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43534</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43538</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43538</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43538</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43541</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43543</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43560</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43563</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43566</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43571</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43571</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43584</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43602</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43613</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43613</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43613</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43628</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43633</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43661</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43690</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43700</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43705</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43712</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43714</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43717</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43717</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43726</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43726</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43746</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43759</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43766</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43767</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43776</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43804</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43833</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43853</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43874</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43896</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43907</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43917</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43929</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43997</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43999</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44003</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>44008</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>44011</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44012</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44012</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44012</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44019</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44020</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>44020</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44020</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44022</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44022</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44029</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44054</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44056</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44070</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>44088</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>44103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>44109</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>44111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44132</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44134</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>44134</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>44139</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>44144</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44144</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44151</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44152</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44152</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44152</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>44153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44153</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44158</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44158</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44160</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44161</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44173</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44173</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44173</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44175</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44180</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44186</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44200</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>44200</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44200</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44207</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44217</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44225</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44236</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44243</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44245</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44263</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44267</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44269</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44271</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44273</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44281</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44341</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44341</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44341</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44348</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44351</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44369</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44370</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44370</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44378</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44386</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44390</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44397</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44405</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44414</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44414</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44414</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44442</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44448</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44448</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44469</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44474</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44502</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44510</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44532</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44541</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44544</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44565</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44582</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44601</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44608</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44624</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44642</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44691</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44700</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44791</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44791</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44830</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>44830</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>44830</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>44833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44844</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44848</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44848</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44851</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44853</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44859</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44862</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44886</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>44888</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44888</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44935</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44935</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44942</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>44942</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44952</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44957</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44957</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44964</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44970</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>44970</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44972</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44981</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>44992</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45001</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45001</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45001</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45001</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45006</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45016</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45028</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45029</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45040</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45043</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45053</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45056</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45062</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45079</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45079</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45086</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45102</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45104</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45104</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45104</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>45110</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45119</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45133</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45170</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>

--- a/Översikt SÄVSJÖ.xlsx
+++ b/Översikt SÄVSJÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y307"/>
+  <dimension ref="A1:Y308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43691</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44847</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43383</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43493</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>43493</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43675</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45168</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45170</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43327</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43383</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43397</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43413</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43418</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43423</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43446</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>43468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43474</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43488</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43489</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43489</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43489</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43494</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43496</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43504</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43506</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43510</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43514</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43514</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43534</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43538</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43538</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43538</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43541</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43543</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43560</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43563</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43566</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43571</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43571</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43584</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43602</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43613</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43613</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43613</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43628</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43633</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43661</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43690</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43700</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43705</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43712</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43714</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43717</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43717</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43726</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43726</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43746</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43759</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43766</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43767</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43776</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43804</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43833</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43853</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43874</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43896</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43907</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43917</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43929</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43997</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43999</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44003</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>44008</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>44011</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44012</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44012</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44012</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44019</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44020</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>44020</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44020</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44022</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44022</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44029</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44054</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44056</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44070</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>44088</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>44103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>44109</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>44111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44132</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44134</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>44134</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>44139</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>44144</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44144</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44151</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44152</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44152</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44152</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>44153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44153</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44158</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44158</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44160</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44161</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44173</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44173</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44173</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44175</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44180</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44186</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44200</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>44200</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44200</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44207</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44217</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44225</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44236</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44243</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44245</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44263</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44267</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44269</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44271</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44273</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44281</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44341</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44341</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44341</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44348</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44351</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44369</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44370</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44370</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44378</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44386</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44390</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44397</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44405</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44414</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44414</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44414</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44442</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44448</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44448</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44469</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44474</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44502</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44510</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44532</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44541</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44544</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44565</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44582</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44601</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44608</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44624</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44642</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44691</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44700</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44791</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44791</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44830</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>44830</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>44830</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>44833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44844</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44848</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44848</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44851</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44853</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44859</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44862</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44886</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>44888</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44888</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44935</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44935</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44942</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>44942</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44952</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44957</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44957</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44964</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44970</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>44970</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44972</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44981</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>44992</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45001</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45001</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45001</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45001</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45006</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45016</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45028</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45029</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45040</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45043</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45053</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45056</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45062</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45079</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45079</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45086</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45102</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45104</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45104</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45104</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>45110</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45119</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45133</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
       </c>
       <c r="R306" s="2" t="inlineStr"/>
     </row>
-    <row r="307">
+    <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
           <t>A 40575-2023</t>
@@ -18478,7 +18478,7 @@
         <v>45170</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18524,6 +18524,63 @@
         <v>0</v>
       </c>
       <c r="R307" s="2" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>A 47893-2023</t>
+        </is>
+      </c>
+      <c r="B308" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C308" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>SÄVSJÖ</t>
+        </is>
+      </c>
+      <c r="G308" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L308" t="n">
+        <v>0</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N308" t="n">
+        <v>0</v>
+      </c>
+      <c r="O308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>0</v>
+      </c>
+      <c r="R308" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SÄVSJÖ.xlsx
+++ b/Översikt SÄVSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43691</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44847</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43383</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43493</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>43493</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43675</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45168</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45170</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43327</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43383</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43397</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43413</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43418</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43423</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43446</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>43468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43474</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43488</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43489</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43489</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43489</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43494</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43496</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43504</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43506</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43510</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43514</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43514</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43534</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43538</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43538</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43538</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43541</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43543</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43560</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43563</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43566</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43571</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43571</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43584</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43602</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43613</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43613</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43613</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43628</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43633</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43661</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43690</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43700</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43705</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43712</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43714</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43717</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43717</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43726</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43726</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43746</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43759</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43766</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43767</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43776</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43804</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43833</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43853</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43874</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43896</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43907</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43917</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43929</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43997</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43999</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44003</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>44008</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>44011</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44012</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44012</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44012</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44019</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44020</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>44020</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44020</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44022</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44022</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44029</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44054</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44056</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44070</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>44088</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>44103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>44109</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>44111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44132</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44134</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>44134</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>44139</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>44144</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44144</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44151</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44152</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44152</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44152</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>44153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44153</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44158</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44158</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44160</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44161</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44173</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44173</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44173</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44175</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44180</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44186</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44200</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>44200</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44200</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44207</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44217</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44225</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44236</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44243</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44245</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44263</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44267</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44269</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44271</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44273</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44281</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44341</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44341</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44341</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44348</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44351</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44369</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44370</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44370</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44378</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44386</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44390</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44397</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44405</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44414</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44414</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44414</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44442</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44448</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44448</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44469</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44474</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44502</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44510</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44532</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44541</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44544</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44565</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44582</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44601</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44608</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44624</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44642</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44691</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44700</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44791</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44791</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44830</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>44830</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>44830</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>44833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44844</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44848</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44848</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44851</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44853</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44859</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44862</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44886</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>44888</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44888</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44935</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44935</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44942</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>44942</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44952</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44957</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44957</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44964</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44970</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>44970</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44972</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44981</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>44992</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45001</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45001</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45001</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45001</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45006</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45016</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45028</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45029</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45040</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45043</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45053</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45056</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45062</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45079</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45079</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45086</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45102</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45104</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45104</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45104</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>45110</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45119</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45133</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45170</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45204</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>

--- a/Översikt SÄVSJÖ.xlsx
+++ b/Översikt SÄVSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43691</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43963</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>44847</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44900</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>43383</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>43493</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>43493</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>43675</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>45168</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45170</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43327</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43356</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43383</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43397</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43409</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43409</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43409</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43412</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43413</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43413</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43413</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43418</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43423</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43423</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43428</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43431</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>43431</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>43440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>43444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>43445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>43446</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>43461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>43461</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>43468</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43469</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43469</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         <v>43472</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>43474</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         <v>43476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>43480</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>43487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         <v>43487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43488</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43489</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43489</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43489</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43493</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43494</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>43496</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43504</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43504</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43504</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43506</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43510</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43514</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>43514</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5062,7 +5062,7 @@
         <v>43525</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>43534</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43538</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43538</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43538</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43541</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43543</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43560</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43560</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43563</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43566</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43571</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43571</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43571</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43584</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43602</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43613</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43613</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43613</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43620</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43628</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43633</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43636</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43644</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43661</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43682</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43682</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43689</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43690</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43697</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43698</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>43700</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>43705</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>43712</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>43714</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43717</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43717</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43726</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43726</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43746</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43752</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43759</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43759</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43766</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43767</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43770</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43776</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43780</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43795</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43804</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>43810</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>43810</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>43815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>43815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>43833</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>43853</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>43874</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>43896</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>43907</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43917</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43929</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>43990</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>43997</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>43999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>43999</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>43999</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>43999</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44003</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         <v>44008</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9399,7 +9399,7 @@
         <v>44011</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44012</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44012</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44012</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44019</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44020</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>44020</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>44020</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         <v>44022</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44022</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
         <v>44029</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10041,7 +10041,7 @@
         <v>44054</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>44056</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
         <v>44070</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>44088</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>44103</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>44109</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>44111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>44113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>44132</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>44134</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>44134</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>44139</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>44144</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>44144</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>44151</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>44152</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44152</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44152</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44152</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>44153</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44153</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44158</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44158</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44160</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44161</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44173</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44173</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44173</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44173</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44174</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44175</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44180</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44186</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44200</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>44200</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44200</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44207</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44217</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44225</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44236</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44243</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44245</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44263</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44267</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44269</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44271</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44273</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44281</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44341</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>44341</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>44341</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44348</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44351</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44369</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44370</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44370</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44377</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44378</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44386</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44390</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44397</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44405</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44414</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44414</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>44414</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44442</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44448</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44448</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44469</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44474</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44502</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44510</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44532</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44541</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44544</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44565</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44582</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44601</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44608</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44624</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44642</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44691</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14837,7 +14837,7 @@
         <v>44700</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14894,7 +14894,7 @@
         <v>44791</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44791</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44830</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>44830</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>44830</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>44833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44844</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         <v>44848</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44848</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44851</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15536,7 +15536,7 @@
         <v>44853</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44859</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44862</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44866</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44866</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15878,7 +15878,7 @@
         <v>44886</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15935,7 +15935,7 @@
         <v>44888</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         <v>44888</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16049,7 +16049,7 @@
         <v>44907</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>44914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>44925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44935</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44935</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44942</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>44942</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44952</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44957</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44957</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44964</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44970</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>44970</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44972</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44981</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44992</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16971,7 +16971,7 @@
         <v>44992</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>44995</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17085,7 +17085,7 @@
         <v>45001</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>45001</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45001</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>45001</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>45006</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>45016</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>45028</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17504,7 +17504,7 @@
         <v>45029</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>45037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17618,7 +17618,7 @@
         <v>45040</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>45043</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>45053</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>45056</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>45062</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>45079</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>45079</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>45086</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
         <v>45102</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>45104</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45104</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45104</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>45110</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45119</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45133</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45170</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45204</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
